--- a/OpenCart_Test_senario.xlsx
+++ b/OpenCart_Test_senario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aparna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B120DA4-4466-4413-A3A7-616AAEE33AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D195BB34-24EB-4D15-9641-DBC6758DD320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{03206FD7-4830-431D-9EDD-E3E01D8272B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{03206FD7-4830-431D-9EDD-E3E01D8272B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="245">
   <si>
     <t>Project name</t>
   </si>
@@ -280,9 +280,6 @@
     <t>Verify header section added on the website.</t>
   </si>
   <si>
-    <t>Verify header section is aligned.</t>
-  </si>
-  <si>
     <t>TC_HA_02</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>TC_HA_12</t>
   </si>
   <si>
-    <t>TC_HA_13</t>
-  </si>
-  <si>
     <t>Verify the logo of the website added on the header is align or not.</t>
   </si>
   <si>
@@ -362,9 +356,6 @@
   </si>
   <si>
     <t>The menu item should reveals a submenu</t>
-  </si>
-  <si>
-    <t>All header elements should be aligned as intended within the header container.</t>
   </si>
   <si>
     <t>The link should redirect to correct page</t>
@@ -744,6 +735,73 @@
   </si>
   <si>
     <t>TC_RA_10</t>
+  </si>
+  <si>
+    <t>Scenario: Verify the logo on the header is aligned
+    Then the logo in the header should be aligned correctly</t>
+  </si>
+  <si>
+    <t>Scenario: Verify navigation bar is displayed correctly
+    Then the navigation bar should be displayed correctly</t>
+  </si>
+  <si>
+    <t>Scenario: Verify header is sticky
+    Then the header should be sticky or fixed as per requirements and design</t>
+  </si>
+  <si>
+    <t>Scenario: Verify all links open on the header
+    Then all links on the header should be present</t>
+  </si>
+  <si>
+    <t>Scenario: Verify correct page opens on link click
+    When I click on a link in the header
+    Then the correct page should be opened</t>
+  </si>
+  <si>
+    <t>Scenario: Verify home page opens on clicking logo
+    When I click on the logo in the header
+    Then the home page should be opened</t>
+  </si>
+  <si>
+    <t>Scenario: Verify link color changes on mouse hover
+    When I hover over a link in the header
+    Then the color of the link should change</t>
+  </si>
+  <si>
+    <t>Scenario: Verify search bar in the header
+    Then there should be a search bar in the header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Scenario: Verify dropdown options on header
+    When I hover or click on a dropdown in the header
+    Then the options should be displayed correctly</t>
+  </si>
+  <si>
+    <t>Scenario: Verify currency selector is displayed
+    Then the currency selector should be displayed correctly</t>
+  </si>
+  <si>
+    <t>Scenario: Verify header background color
+    Then the header's background color should be as specified</t>
+  </si>
+  <si>
+    <t>Feature: Verify the header on the OpenCart demo website
+  Background:
+    Given I open the OpenCart demo website
+  Scenario: Verify header section added on the website
+    Then I should see the header section</t>
+  </si>
+  <si>
+    <t>Background color should be #00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The header is added on website </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Logi is visible and aligned in the middle.</t>
   </si>
 </sst>
 </file>
@@ -834,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -863,6 +921,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>52</v>
@@ -1576,7 +1637,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B30" s="6"/>
       <c r="D30" s="6" t="s">
@@ -1594,9 +1655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494B95D7-F291-41A0-B92F-D8D0406DA22C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,20 +1714,20 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1678,20 +1739,20 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1703,17 +1764,17 @@
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1726,17 +1787,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1749,17 +1810,17 @@
         <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1772,17 +1833,17 @@
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1795,17 +1856,17 @@
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1818,17 +1879,17 @@
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1841,17 +1902,17 @@
         <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1863,17 +1924,17 @@
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1885,20 +1946,20 @@
         <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1924,11 +1985,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6C25B1-3618-4D28-8D5F-1AD49F0E5BCE}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1937,10 +1998,10 @@
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="33.44140625" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" customWidth="1"/>
+    <col min="5" max="5" width="59.6640625" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.21875" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -1962,7 +2023,7 @@
       <c r="F1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -1978,7 +2039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1991,65 +2052,83 @@
       <c r="D2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="F2" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F3" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="F4" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>98</v>
@@ -2062,25 +2141,27 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="F5" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2090,25 +2171,27 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="8" t="s">
+        <v>232</v>
+      </c>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -2123,20 +2206,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="F7" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2151,20 +2236,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="F8" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2179,17 +2266,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="F9" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>108</v>
@@ -2202,25 +2291,27 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="F10" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>111</v>
+        <v>154</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2235,20 +2326,22 @@
         <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="F11" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>101</v>
+        <v>154</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2258,25 +2351,27 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="F12" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>104</v>
+        <v>154</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -2286,25 +2381,27 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>239</v>
+      </c>
       <c r="F13" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>103</v>
+        <v>154</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -2314,23 +2411,13 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
-        <v>157</v>
-      </c>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -2362,7 +2449,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -2407,11 +2494,11 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -2453,20 +2540,17 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
@@ -2520,19 +2604,6 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2545,7 +2616,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2601,20 +2672,20 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -2629,20 +2700,20 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -2657,17 +2728,17 @@
         <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -2683,17 +2754,17 @@
         <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -2709,17 +2780,17 @@
         <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -2735,17 +2806,17 @@
         <v>16</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -2761,17 +2832,17 @@
         <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -2787,17 +2858,17 @@
         <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -2813,17 +2884,17 @@
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2839,17 +2910,17 @@
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2865,17 +2936,17 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -3046,17 +3117,17 @@
         <v>21</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -3069,17 +3140,17 @@
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3092,17 +3163,17 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -3115,17 +3186,17 @@
         <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3138,17 +3209,17 @@
         <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -3161,17 +3232,17 @@
         <v>21</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -3184,17 +3255,17 @@
         <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -3207,17 +3278,17 @@
         <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3230,17 +3301,17 @@
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3253,17 +3324,17 @@
         <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -3276,16 +3347,16 @@
         <v>21</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3293,16 +3364,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3310,16 +3381,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -3327,16 +3398,16 @@
         <v>21</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3344,17 +3415,17 @@
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3365,17 +3436,17 @@
         <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -3386,17 +3457,17 @@
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -3407,17 +3478,17 @@
         <v>21</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -3428,17 +3499,17 @@
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -3567,10 +3638,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>71</v>
@@ -3585,10 +3656,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>71</v>
@@ -3603,10 +3674,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>71</v>
@@ -3621,10 +3692,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>71</v>
@@ -3639,10 +3710,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>71</v>
@@ -3657,10 +3728,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>71</v>
@@ -3675,10 +3746,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>71</v>
@@ -3693,10 +3764,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>71</v>
@@ -3710,10 +3781,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>71</v>
@@ -3823,16 +3894,16 @@
         <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3840,16 +3911,16 @@
         <v>22</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3857,16 +3928,16 @@
         <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3874,17 +3945,17 @@
         <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -3897,17 +3968,17 @@
         <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
